--- a/biology/Zoologie/Hachiko_(film,_1987)/Hachiko_(film,_1987).xlsx
+++ b/biology/Zoologie/Hachiko_(film,_1987)/Hachiko_(film,_1987).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hachiko (ハチ公物語, Hachikō monogatari?) est un film japonais de Seijirō Kōyama sorti en 1987. 
 Le film relate l'histoire véridique de Hachikō, un chien qui, après la mort de son maître en 1925, a attendu le retour de celui-ci devant le portique d'entrée de la gare de Shibuya, tous les soirs pendant près de dix ans, jusqu’à mourir à son tour. 
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 10 novembre 1923 a Ōdate, au Japon, Aka, chienne de race Akita, donne naissance à plusieurs chiots. L'un d'eux est envoyé par train à M. Hidesaburō Ueno (en), un professeur à l'université impériale de Tokyo connu pour son amour des chiens. Au départ, le professeur Ueno et son épouse Shizuko n'ont pas l'intention de garder l'animal en raison de la douleur encore intense causée par la mort récente du précédent chien de maison. Cependant, l'enthousiasme de leur fille Chizuko les pousse à adopter le petit Akita, que le professeur nomme « Hachi » en raison de la posture que prend le chiot — jambes fermement plantées au sol — qui rappelle le chiffre huit écrit en caractères japonais (八, prononcé « hachi »).
 Malgré le manque d'enthousiasme des serviteurs Ogata et Oyoshi, le petit Hachi s'épanouit et établit un lien fort avec son maître le professeur Ueno. Les deux font de longues promenades en extérieur ; le professeur prend même le chien dans la baignoire pour le laver avec lui, ainsi que pour dormir avec lui les nuits de mauvais temps afin de lui éviter la niche. 
@@ -549,9 +563,11 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce film a été en tête des entrées au Japon en 1987, avec deux milliards de yens de revenus[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce film a été en tête des entrées au Japon en 1987, avec deux milliards de yens de revenus.
 Ce film est consacré à l'attachement, la confiance et l'affection d'un chien, dont la statue de bronze se dresse toujours à ce jour au-dessus de la gare de Shibuya, à Tokyo.
 </t>
         </is>
@@ -581,9 +597,11 @@
           <t>Remake</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2009 : Hatchi[2], film américain de Lasse Hallström, avec Richard Gere.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2009 : Hatchi, film américain de Lasse Hallström, avec Richard Gere.</t>
         </is>
       </c>
     </row>
@@ -611,7 +629,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Titre français : Hachiko
 Titre original : ハチ公物語 (Hachikō monogatari?)
@@ -654,7 +674,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Tatsuya Nakadai : Hidesaburō (Shujiro) Ueno
 Kaoru Yachigusa : Shizuko Ueno
